--- a/app/config/disease_config.xlsx
+++ b/app/config/disease_config.xlsx
@@ -27,25 +27,18 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -53,22 +46,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -145,51 +132,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>System</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <t>疾病ID（英文，唯一标识）</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <t>疾病名称（中文）</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <t>实验室检验指标筛选（JSON格式：分组的指标列表）</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <t>关键决策指标（JSON格式：指标名称列表）</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <t>重点标注指标（JSON格式：需要标红的指标列表）</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <t>趋势折线图指标（JSON格式：3-5个核心趋势指标）</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <t>MDT报告指标集（JSON格式：分组的指标列表）</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,271 +432,250 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="120" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>disease_id</t>
+          <t>disease_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>disease_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lab_test_indicators</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>key_decision_indicators</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_indicators</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>trend_chart_indicators</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mdt_report_indicators</t>
+          <t>dashboard_description</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="250" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>liver_cancer</t>
+    <row r="2" ht="400" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>淋巴瘤</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>### 基本信息提取
+- 姓名、性别、年龄
+- 简要介绍：简要介绍患者主疾病（淋巴瘤）的诊疗经过，如果是初发，则介绍下起病情况、症状、淋巴瘤相关局部症状
+- 会诊目的
+### 时间轴要求
+需要体现从最初症状出现 → 诊断 → 治疗 → 疗效和安全性 → 当前状态，突出异常检查结果（比如病理结果、CT/MRI/PET-CT结论、诊断、使用的治疗方案组成及使用周期、阶段性的疗效评价结果、有无不良反应出现（比如CRS等）、关键的异常指标、目前的状态（有无进展、复发或死亡）
+**特殊标注要求：**
+- PET-CT检查要备注医院
+- 其他手术要备注手术医院和主刀医生
+### 关键指标趋势图
+以下指标需要提取时间序列数据用于绘制趋势图：
+1. **乳酸脱氢酶（LDH）** - 来自生化检查
+2. **β2-微球蛋白（β2-MG）** - 来自生化检查
+3. **SUV max (PET/CT摄取值)** - 来自PET-CT报告
+4. **淋巴瘤直径情况** - 来自PET-CT报告/增强CT等
+5. **血常规关键指标**：白细胞、血小板、中性粒细胞
+### 重点标注规则
+以下内容需要在患者旅程中标红显示：
+- 病理检查中的免疫组化结果：所有"+，&gt;xx%"的项目
+- 分子检测中的关键基因突变（如TP53失活突变等）
+- 异常的LDH、β2-MG值
+- 高代谢病灶的SUVmax值
+### 既往史
+- 既往疾病史（除淋巴瘤以外）
+- 手术史和外伤史
+- 输血史和过敏史
+### 病历事件回顾维度
+对于每一份病历信息，应该包括如下维度：
+#### 1. 事件名称
+简要描述事件类型（如初诊、复查、治疗等）
+#### 2. 实验室检查
+- **血常规**：白细胞、血小板、中性粒细胞等
+- **血生化**：AST/ALT、特别是LDH、β2-MG
+- **病毒感染**：关注乙肝DNA、丙肝HCV、HIV和EBV
+#### 3. 病理检查
+- **诊断结论**：如弥漫大B细胞淋巴瘤
+- **免疫组化结果**：所有"+，&gt;xx%"标红显示
+- **分子检测**：基因检测（FISH、PCR、NGS等），如TP53失活突变标红显示
+#### 4. 影像学检查
+- **PET-CT检查**：
+  - 描述影像重点表现：高代谢病灶部位、大小、SUVmax值
+  - 肝血池SUVmax数值、纵隔血池SUVmax数值
+  - 诊断印象：如多发淋巴结浸润，脾浸润
+  - Ann Arbor分期：如IV期 B组
+- **增强CT**：描述影像重点表现和结论
+- **核磁MRI**：描述影像重点表现和结论
+#### 5. 其他检查
+- 骨髓穿刺+活检、腰椎穿刺
+- 超声、心电图
+- 凝血五项
+- **突出异常检查结果**
+### 治疗信息
+- 治疗方案：药物组成和治疗疗程
+- 使用周期数
+### 疗效评估（治疗后复查）
+- **评估时间**
+- **评估方法**：PET-CT/增强CT/MRI等
+- **检查结果**：较前变化
+- **疗效结论**：CR/PR/PD/SD
+- **实验室检查变化**
+### 安全性评估
+是否发生以下不良反应：
+- CRS (细胞因子释放综合征)
+- 中性粒细胞减少症
+- 贫血
+- 血小板减少症
+- 感染
+- 乙肝病毒再激活
+- 肿瘤溶解综合征
+- 燃瘤反应
+如果有不良反应，需要体现：
+- 严重程度级别（参考CTCAE V5.0标准）
+- 发生时间
+- 如何进行处理
+- 持续时间
+- 转归结果
+- 转归时间
+---</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="400" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>肝癌</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>{
-  "血常规": [
-    "白细胞",
-    "红细胞",
-    "血红蛋白",
-    "血小板",
-    "中性粒细胞",
-    "淋巴细胞"
-  ],
-  "肝功能": [
-    "TBIL",
-    "DBIL",
-    "ALB",
-    "ALT",
-    "AST",
-    "GGT",
-    "PA"
-  ],
-  "肾功能": [
-    "BUN",
-    "CREA"
-  ],
-  "电解质": [
-    "K",
-    "NA",
-    "CL"
-  ],
-  "凝血功能": [
-    "PT",
-    "INR"
-  ],
-  "肿瘤标志物": [
-    "AFP",
-    "PIVKA-II",
-    "CA199",
-    "CEA"
-  ],
-  "病毒标志物": [
-    "乙肝两对半"
-  ]
-}</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>[
-  "肿瘤分期(BCLC/TNM)",
-  "Child-Pugh分级",
-  "肝功能评分",
-  "ECOG体能状态评分",
-  "肿瘤大小",
-  "肿瘤数量",
-  "血管侵犯情况",
-  "肝外转移情况"
-]</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>[
-  "AFP",
-  "PIVKA-II",
-  "CA199"
-]</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>[
-  {
-    "name": "AFP",
-    "display_name": "甲胎蛋白",
-    "unit": "ng/mL"
-  },
-  {
-    "name": "PIVKA-II",
-    "display_name": "异常凝血酶原",
-    "unit": "mAU/mL"
-  },
-  {
-    "name": "CA199",
-    "display_name": "糖类抗原199",
-    "unit": "U/mL"
-  }
-]</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{
-  "血常规": [
-    "白细胞",
-    "红细胞",
-    "血红蛋白",
-    "血小板",
-    "中性粒细胞",
-    "淋巴细胞"
-  ],
-  "肝功能": [
-    "TBIL",
-    "DBIL",
-    "ALB",
-    "ALT",
-    "AST",
-    "GGT",
-    "PA"
-  ],
-  "肾功能": [
-    "BUN",
-    "CREA"
-  ],
-  "电解质": [
-    "K",
-    "NA",
-    "CL"
-  ],
-  "凝血功能": [
-    "PT",
-    "INR"
-  ],
-  "肿瘤标志物": [
-    "AFP",
-    "PIVKA-II",
-    "CA199",
-    "CEA"
-  ],
-  "病毒标志物": [
-    "乙肝两对半"
-  ]
-}</t>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>### 基本信息提取
+- 姓名、性别、年龄
+- 简要介绍：患者主疾病（肝癌）的诊疗经过，如果是初发，则介绍起病情况、症状、肝癌相关症状
+- 会诊目的
+### 时间轴要求
+需要体现从最初症状出现 → 诊断 → 治疗 → 疗效评价 → 当前状态，突出异常检查结果（比如病理结果、CT/MRI增强扫描结论、诊断、使用的治疗方案组成及使用周期、阶段性的疗效评价结果、有无不良反应、关键的异常指标、目前的状态（有无进展、复发或死亡）
+**特殊标注要求：**
+- 手术要备注手术医院和主刀医生
+- 介入治疗要备注治疗医院
+### 关键决策指标
+以下指标对肝癌治疗决策至关重要：
+- **肿瘤分期**：BCLC分期/TNM分期
+- **Child-Pugh分级**：评估肝功能储备
+- **肝功能评分**
+- **ECOG体能状态评分**
+- **肿瘤大小**
+- **肿瘤数量**
+- **血管侵犯情况**
+- **肝外转移情况**
+### 关键指标趋势图
+以下指标需要提取时间序列数据用于绘制趋势图：
+1. **AFP（甲胎蛋白）** - 来自肿瘤标志物检查
+2. **PIVKA-II（异常凝血酶原）** - 来自肿瘤标志物检查
+3. **CA199（糖类抗原199）** - 来自肿瘤标志物检查
+4. **肝功能指标**：ALT、AST、TBIL、ALB
+5. **肿瘤大小变化** - 来自影像学检查
+### 重点标注规则
+以下内容需要在患者旅程中标红显示：
+- 肿瘤标志物异常升高：AFP、PIVKA-II、CA199
+- 肝功能异常指标
+- 影像学发现的血管侵犯、肝外转移
+- Child-Pugh分级恶化
+### 既往史
+- 既往疾病史（特别是肝炎、肝硬化病史）
+- 手术史和外伤史
+- 输血史和过敏史
+- 家族史（肝癌家族史）
+- 社会史（饮酒史等）
+### 病历事件回顾维度
+对于每一份病历信息，应该包括如下维度：
+#### 1. 事件名称
+简要描述事件类型（如初诊、手术、介入治疗、复查等）
+#### 2. 实验室检查
+- **血常规**：白细胞、红细胞、血红蛋白、血小板、中性粒细胞、淋巴细胞
+- **肝功能**：TBIL、DBIL、ALB、ALT、AST、GGT、PA
+- **肾功能**：BUN、CREA
+- **电解质**：K、NA、CL
+- **凝血功能**：PT、INR
+- **肿瘤标志物**：AFP、PIVKA-II、CA199、CEA
+- **病毒标志物**：乙肝两对半、乙肝DNA定量、丙肝抗体等
+#### 3. 病理检查
+- **诊断结论**：如肝细胞癌
+- **病理分级**：分化程度
+- **免疫组化结果**
+- **分子检测**：基因突变等
+#### 4. 影像学检查
+- **增强CT/MRI**：
+  - 肿瘤位置、大小、数量
+  - 动脉期、门脉期、延迟期表现
+  - 血管侵犯情况（门静脉、肝静脉）
+  - 肝外转移情况
+  - 肝硬化表现
+- **超声**：肿瘤大小、位置、血流情况
+- **PET-CT**（如有）：代谢情况、转移灶
+#### 5. 其他检查
+- 肝脏弹性检测（FibroScan）
+- 腹水检查
+- 心电图、胸片等术前检查
+- **突出异常检查结果**
+### 治疗信息
+- **手术治疗**：手术方式、切除范围、手术医院、主刀医生
+- **介入治疗**：TACE、消融等，治疗医院
+- **系统治疗**：靶向药物、免疫治疗、化疗等，药物名称、剂量、周期
+- **放疗**：放疗方式、剂量、疗程
+### 疗效评估（治疗后复查）
+- **评估时间**
+- **评估方法**：增强CT/MRI等
+- **肿瘤变化**：大小、数量、活性
+- **疗效结论**：CR/PR/SD/PD（mRECIST标准）
+- **肿瘤标志物变化**：AFP、PIVKA-II等
+- **肝功能变化**
+### 安全性评估
+是否发生以下不良反应：
+- 肝功能损害
+- 骨髓抑制（白细胞、血小板减少）
+- 消化道反应
+- 手足综合征（靶向药物）
+- 高血压（靶向药物）
+- 免疫相关不良反应（免疫治疗）
+- 介入术后综合征
+如果有不良反应，需要体现：
+- 严重程度级别（参考CTCAE V5.0标准）
+- 发生时间
+- 如何进行处理
+- 持续时间
+- 转归结果
+- 转归时间
+---</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+    <row r="4" ht="200" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>通用</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>{
-  "血常规": [
-    "白细胞",
-    "红细胞",
-    "血红蛋白",
-    "血小板"
-  ],
-  "生化": [
-    "ALT",
-    "AST",
-    "TBIL",
-    "ALB",
-    "BUN",
-    "CREA",
-    "GLU"
-  ]
-}</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>[
-  "诊断",
-  "分期",
-  "治疗方案"
-]</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{
-  "血常规": [
-    "白细胞",
-    "红细胞",
-    "血红蛋白",
-    "血小板"
-  ],
-  "生化": [
-    "ALT",
-    "AST",
-    "TBIL",
-    "ALB",
-    "BUN",
-    "CREA"
-  ]
-}</t>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>### 基本信息提取
+- 姓名、性别、年龄
+- 简要介绍：患者主要疾病的诊疗经过
+### 时间轴要求
+需要体现从最初症状出现 → 诊断 → 治疗 → 疗效评价 → 当前状态
+### 实验室检查
+- 血常规：白细胞、红细胞、血红蛋白、血小板
+- 生化：ALT、AST、TBIL、ALB、BUN、CREA、GLU
+### 病历事件回顾维度
+对于每一份病历信息，应该包括：
+1. 事件名称：简要描述
+2. 实验室检查：血常规、生化等
+3. 影像学检查：CT、MRI、超声等
+4. 病理检查（如有）
+5. 治疗信息：药物、手术等
+### 数据提取原则
+1. 模型应根据原始数据的实际内容，灵活识别相关信息
+2. 时间尽量转换为标准的yyyy-MM-dd格式
+3. 保持病理和影像报告的原文重要叙述</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>